--- a/ขออนุมัติ Outing AD2.xlsx
+++ b/ขออนุมัติ Outing AD2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o4010001\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Siam-file-02\it$\ITAS\AD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79F2E06-6098-4E90-A0E8-F919E41D708C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262DA17-9937-49B0-A2B9-FD82EF3EB755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>1.รายชื่อพนักงานที่เข้าร่วมกิจกรรม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            (นายมานพ  อุดมศักดิ์ )</t>
   </si>
   <si>
     <t xml:space="preserve"> (นายพัฒนา เสาวรัตน์)</t>
@@ -244,6 +241,9 @@
       </rPr>
       <t xml:space="preserve"> บาทถ้วนครับ</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            (นายอติชาติ  เขียวจิตร )</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7"/>
       <c r="K3" s="8"/>
@@ -2453,7 +2453,7 @@
       <c r="A17" s="47"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -2475,7 +2475,7 @@
     <row r="18" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="60"/>
       <c r="B18" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
@@ -2501,7 +2501,7 @@
     <row r="19" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
@@ -2525,7 +2525,7 @@
     <row r="20" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -2570,7 +2570,7 @@
     <row r="22" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -2593,7 +2593,7 @@
     <row r="23" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -2616,7 +2616,7 @@
     <row r="24" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="45"/>
@@ -2639,7 +2639,7 @@
     <row r="25" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -2704,7 +2704,7 @@
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="39" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="74" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -2949,7 +2949,7 @@
       <c r="E39" s="63"/>
       <c r="F39" s="75"/>
       <c r="G39" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" s="65"/>
       <c r="I39" s="65"/>

--- a/ขออนุมัติ Outing AD2.xlsx
+++ b/ขออนุมัติ Outing AD2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Siam-file-02\it$\ITAS\AD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262DA17-9937-49B0-A2B9-FD82EF3EB755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019D257-DA08-435D-BE50-60F83339BF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>บันทึกภายใน</t>
   </si>
@@ -120,36 +120,6 @@
   </si>
   <si>
     <t>จากเพื่อนร่วมทีมด้วด้วย ประกอบกับช่วงที่ผ่านมา มีกลุ่มเพื่อนร่วมงานที่ย้ายมาจากทีม Migrate และมีพนักงานที่พึ่งเริ่มงานใหม่หลายท่าน  ทางทีม</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">บัญชีรับเงินสนับสนุน :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Angsana New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">พร้อมเพย์ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Angsana New"/>
-        <family val="1"/>
-      </rPr>
-      <t>0826702691</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Angsana New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> มานพ อุดมศักดิ์</t>
-    </r>
   </si>
   <si>
     <t>ขอเบิกงบ จัดกิจกรรมเสริมสร้างความสัมพันธ์ภายในทีม AD2 (นอกสถานที่) ประจำปี 2567</t>
@@ -244,6 +214,25 @@
   </si>
   <si>
     <t xml:space="preserve">            (นายอติชาติ  เขียวจิตร )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นำเสนอโดย : </t>
+  </si>
+  <si>
+    <t>นาย อติชาติ เขียวจิตร</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บัญชีรับเงินสนับสนุน :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Angsana New"/>
+        <family val="1"/>
+      </rPr>
+      <t>ธนาคารทหารไทย(TTB) 043-7-17850-2 สร้อยขวัญ เทียมมณี</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -993,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
@@ -2275,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="K3" s="8"/>
@@ -2305,8 +2294,12 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="S6" s="9"/>
     </row>
@@ -2570,7 +2563,7 @@
     <row r="22" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -2593,7 +2586,7 @@
     <row r="23" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -2616,7 +2609,7 @@
     <row r="24" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="45"/>
@@ -2639,7 +2632,7 @@
     <row r="25" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -2704,7 +2697,7 @@
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="46" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
@@ -2941,7 +2934,7 @@
     </row>
     <row r="39" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>

--- a/ขออนุมัติ Outing AD2.xlsx
+++ b/ขออนุมัติ Outing AD2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Siam-file-02\it$\ITAS\AD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019D257-DA08-435D-BE50-60F83339BF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D0F0D-41E0-4C47-92F4-58CC450449B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
         <rFont val="Angsana New"/>
         <family val="1"/>
       </rPr>
-      <t>ธนาคารทหารไทย(TTB) 043-7-17850-2 สร้อยขวัญ เทียมมณี</t>
+      <t>ธนาคารกรุงเทพ 920-7-384984 สร้อยขวัญ เทียมมณี</t>
     </r>
   </si>
 </sst>
@@ -983,7 +983,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
